--- a/biology/Histoire de la zoologie et de la botanique/Carl_Holtermann/Carl_Holtermann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Holtermann/Carl_Holtermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Ludvig Holtermann, né le 23 janvier 1866 à Hafslo, aujourd'hui Luster, comté de Sogn og Fjordane, Norvège[1], mort le 2 mai 1923 à Berlin, est un botaniste et journaliste norvégien qui fait sa carrière en Allemagne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Ludvig Holtermann, né le 23 janvier 1866 à Hafslo, aujourd'hui Luster, comté de Sogn og Fjordane, Norvège, mort le 2 mai 1923 à Berlin, est un botaniste et journaliste norvégien qui fait sa carrière en Allemagne.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père est juriste. Il fait ses études secondaires à Fredrikshald (Halden)[1] puis, en 1888, il commence des études de sciences naturelles à l'université d'Oslo. Il obtient son doctorat à l'université de Bonn en 1893. Il est ensuite assistant à l'université de Münster avant de devenir professeur associé de botanique à Berlin en 1897, puis professeur en 1902[3].
-Holtermann effectue deux voyages d'études, au Sri Lanka, à Bornéo et à Java. Il s'intéresse aux plantes tropicales, et notamment aux champignons. Il est correspondant à Berlin des journaux norvégiens Morgenbladet (1898-1900) et Aftenposten (1901-1922). Pendant la Première Guerre mondiale, il se rend à plusieurs reprises sur les fronts oriental et occidental en tant que correspondant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père est juriste. Il fait ses études secondaires à Fredrikshald (Halden) puis, en 1888, il commence des études de sciences naturelles à l'université d'Oslo. Il obtient son doctorat à l'université de Bonn en 1893. Il est ensuite assistant à l'université de Münster avant de devenir professeur associé de botanique à Berlin en 1897, puis professeur en 1902.
+Holtermann effectue deux voyages d'études, au Sri Lanka, à Bornéo et à Java. Il s'intéresse aux plantes tropicales, et notamment aux champignons. Il est correspondant à Berlin des journaux norvégiens Morgenbladet (1898-1900) et Aftenposten (1901-1922). Pendant la Première Guerre mondiale, il se rend à plusieurs reprises sur les fronts oriental et occidental en tant que correspondant.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Holtermannia (en) porte son nom[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Holtermannia (en) porte son nom.
 </t>
         </is>
       </c>
